--- a/output/ayuda en acción.xlsx
+++ b/output/ayuda en acción.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -870,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ137"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,7 +888,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,10 +997,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1090,15 +1108,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>3702453</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1197,15 +1224,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>436855</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1304,15 +1340,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>2927078</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1411,15 +1456,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>1901817</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1518,15 +1572,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>2115979</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1625,15 +1688,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>4639578</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1732,15 +1804,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>756440</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1839,15 +1920,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>6159604</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1946,15 +2036,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>837225</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2053,15 +2152,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>8612270</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2160,15 +2268,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>149742</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2267,15 +2384,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>1039355</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2374,15 +2500,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>430018</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2481,15 +2616,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>496749</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2588,15 +2732,24 @@
         <v>0.9111224523966369</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>471906</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2695,15 +2848,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>1051296</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2802,15 +2964,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1561628</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2909,15 +3080,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>1288570</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3016,15 +3196,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>1288570</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3123,15 +3312,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>962380</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3230,15 +3428,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>569003</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3337,15 +3544,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>3815481</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3444,15 +3660,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>418898</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3551,15 +3776,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>3719208</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3658,15 +3892,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>1995606</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3765,15 +4008,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>2330972</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3872,15 +4124,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>5074615</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3979,15 +4240,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1105062</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4086,15 +4356,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>6489356</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4193,15 +4472,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>1216468</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4300,15 +4588,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>8089728</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4407,15 +4704,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>133806</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4514,15 +4820,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>1049320</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4621,15 +4936,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>400225</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4728,15 +5052,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>450476</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4835,15 +5168,24 @@
         <v>0.5535617801787456</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>672414</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4942,15 +5284,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>1059526</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5049,15 +5400,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>1112539</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5156,15 +5516,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>426525</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5263,15 +5632,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>1374147</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5370,15 +5748,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>934725</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5477,15 +5864,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>474769</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5584,15 +5980,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>3610360</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5691,15 +6096,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>450000</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5798,15 +6212,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>470318</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5905,15 +6328,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>3063541</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6012,15 +6444,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>1408514</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6119,15 +6560,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>1798518</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6226,15 +6676,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>4260301</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6333,15 +6792,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>1008218</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6440,15 +6908,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>4509357</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6547,15 +7024,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1674690</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6654,15 +7140,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>6085479</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6761,15 +7256,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>212437</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6868,15 +7372,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>1077804</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6975,15 +7488,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>445851</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7082,15 +7604,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>476412</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7189,15 +7720,24 @@
         <v>0.8635140767177034</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>476191</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7296,15 +7836,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>1672164</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7403,15 +7952,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>509183.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7510,15 +8068,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>2087108</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7617,15 +8184,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>1030102.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7724,15 +8300,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>244283.5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7831,15 +8416,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>1375752</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7938,15 +8532,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>673293</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8045,15 +8648,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>525714.5</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8152,15 +8764,24 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>659351</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8259,15 +8880,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>1672164</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8366,15 +8996,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>509183.5</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8473,15 +9112,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>2087108</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8580,15 +9228,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>1030102.5</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8687,15 +9344,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>244283.5</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8794,15 +9460,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>1375752</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8901,15 +9576,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>673293</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9008,15 +9692,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>525714.5</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9115,15 +9808,24 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>659351</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9222,15 +9924,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>83985.5</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9329,15 +10040,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>1950933.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9436,15 +10156,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>776829</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9543,15 +10272,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>1513675.5</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9650,15 +10388,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>1173070</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9757,15 +10504,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>927451.5</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9864,15 +10620,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>152886</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -9971,15 +10736,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>13179.5</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10078,15 +10852,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>1347992.5</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10185,15 +10968,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>474290</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10292,15 +11084,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>425593</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10399,15 +11200,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>477357.5</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10506,15 +11316,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>618408.5</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10613,15 +11432,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>325666.5</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -10720,15 +11548,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>434076</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10827,15 +11664,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>700364</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10934,15 +11780,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>168366</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11041,15 +11896,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>761538.5</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11148,15 +12012,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>1707989</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -11255,15 +12128,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>264832.5</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11362,15 +12244,24 @@
         <v>0.7742093374632989</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>146128.5</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11469,15 +12360,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>83985.5</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11576,15 +12476,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>1950933.5</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11683,15 +12592,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>776829</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11790,15 +12708,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>1513675.5</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11897,15 +12824,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>1173070</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12004,15 +12940,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>927451.5</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12111,15 +13056,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>152886</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12218,15 +13172,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>13179.5</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12325,15 +13288,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>1347992.5</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12432,15 +13404,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>474290</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12539,15 +13520,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>425593</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12646,15 +13636,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>477357.5</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12753,15 +13752,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>618408.5</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12860,15 +13868,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>325666.5</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12967,15 +13984,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>434076</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13074,15 +14100,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>1</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>700364</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13181,15 +14216,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>168366</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13288,15 +14332,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>761538.5</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13395,15 +14448,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>1707989</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13502,15 +14564,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>264832.5</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13609,15 +14680,24 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>146128.5</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13716,15 +14796,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>1</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>3835527</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13823,15 +14912,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>1381810</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13930,15 +15028,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>2970319</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14037,15 +15144,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>2901379</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14144,15 +15260,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>2087090</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14251,15 +15376,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>341664</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14358,15 +15492,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>25063</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14465,15 +15608,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>1</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>2996582</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14572,15 +15724,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>824241</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14679,15 +15840,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>822066</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -14786,15 +15956,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>946361</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14893,15 +16072,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>1</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>1273589</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -15000,15 +16188,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>804442</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -15107,15 +16304,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>342464</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15214,15 +16420,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>1405471</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15321,15 +16536,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>1442210</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15428,15 +16652,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>3672670</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -15535,9 +16768,18 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>445023</v>
       </c>
     </row>

--- a/output/ayuda en acción.xlsx
+++ b/output/ayuda en acción.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -879,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM137"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,7 +894,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,10 +1012,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1066,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U2">
         <v>127</v>
@@ -1102,30 +1114,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH2">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI2">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ2">
         <v>1981</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>3702453</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1182,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U3">
         <v>127</v>
@@ -1218,30 +1236,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH3">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI3">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ3">
         <v>1981</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>436855</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1298,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U4">
         <v>127</v>
@@ -1334,30 +1358,36 @@
         <v>3881838</v>
       </c>
       <c r="AG4">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH4">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI4">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ4">
         <v>1981</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>2927078</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1414,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U5">
         <v>127</v>
@@ -1450,30 +1480,36 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH5">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI5">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ5">
         <v>1981</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>1901817</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1530,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U6">
         <v>127</v>
@@ -1566,30 +1602,36 @@
         <v>4231773</v>
       </c>
       <c r="AG6">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH6">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI6">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ6">
         <v>1981</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>2115979</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1646,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U7">
         <v>127</v>
@@ -1682,30 +1724,36 @@
         <v>4266738</v>
       </c>
       <c r="AG7">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH7">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI7">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ7">
         <v>1981</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>4639578</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1762,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U8">
         <v>127</v>
@@ -1798,30 +1846,36 @@
         <v>2282830</v>
       </c>
       <c r="AG8">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH8">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI8">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ8">
         <v>1981</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>756440</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1878,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U9">
         <v>127</v>
@@ -1914,30 +1968,36 @@
         <v>3433758</v>
       </c>
       <c r="AG9">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH9">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI9">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ9">
         <v>1981</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>6159604</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1994,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U10">
         <v>127</v>
@@ -2030,30 +2090,36 @@
         <v>3740606</v>
       </c>
       <c r="AG10">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH10">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI10">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ10">
         <v>1981</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>837225</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2110,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U11">
         <v>127</v>
@@ -2146,30 +2212,36 @@
         <v>5201043</v>
       </c>
       <c r="AG11">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH11">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI11">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ11">
         <v>1981</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>8612270</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2226,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U12">
         <v>127</v>
@@ -2262,30 +2334,36 @@
         <v>762097</v>
       </c>
       <c r="AG12">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH12">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI12">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ12">
         <v>1981</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>149742</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2342,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U13">
         <v>127</v>
@@ -2378,30 +2456,36 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH13">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI13">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ13">
         <v>1981</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>1039355</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2458,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U14">
         <v>127</v>
@@ -2494,30 +2578,36 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH14">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI14">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ14">
         <v>1981</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>430018</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2574,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U15">
         <v>127</v>
@@ -2610,30 +2700,36 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH15">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI15">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ15">
         <v>1981</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>496749</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2690,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>71285510</v>
+        <v>38065837</v>
       </c>
       <c r="U16">
         <v>127</v>
@@ -2726,30 +2822,36 @@
         <v>366584</v>
       </c>
       <c r="AG16">
-        <v>78239220</v>
+        <v>45019547</v>
       </c>
       <c r="AH16">
-        <v>0.9111224523966369</v>
+        <v>0.8455402050136133</v>
       </c>
       <c r="AI16">
+        <v>0.04545394470539652</v>
+      </c>
+      <c r="AJ16">
         <v>1981</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>471906</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2806,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U17">
         <v>125</v>
@@ -2842,30 +2944,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH17">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI17">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ17">
         <v>1981</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>1051296</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2922,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U18">
         <v>125</v>
@@ -2958,30 +3066,36 @@
         <v>17422722</v>
       </c>
       <c r="AG18">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH18">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI18">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ18">
         <v>1981</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1561628</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3038,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U19">
         <v>125</v>
@@ -3074,30 +3188,36 @@
         <v>9912922</v>
       </c>
       <c r="AG19">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH19">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI19">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ19">
         <v>1981</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>1288570</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3154,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U20">
         <v>125</v>
@@ -3190,30 +3310,36 @@
         <v>14272145</v>
       </c>
       <c r="AG20">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH20">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI20">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ20">
         <v>1981</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>1288570</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3270,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U21">
         <v>125</v>
@@ -3306,30 +3432,36 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH21">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI21">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ21">
         <v>1981</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>962380</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3386,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U22">
         <v>125</v>
@@ -3422,30 +3554,36 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH22">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI22">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ22">
         <v>1981</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>569003</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3502,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U23">
         <v>125</v>
@@ -3538,30 +3676,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG23">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH23">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI23">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ23">
         <v>1981</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>3815481</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3618,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U24">
         <v>125</v>
@@ -3654,30 +3798,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG24">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH24">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI24">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ24">
         <v>1981</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>418898</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3734,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U25">
         <v>125</v>
@@ -3770,30 +3920,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG25">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH25">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI25">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ25">
         <v>1981</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>3719208</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3850,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U26">
         <v>125</v>
@@ -3886,30 +4042,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH26">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI26">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ26">
         <v>1981</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>1995606</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3966,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U27">
         <v>125</v>
@@ -4002,30 +4164,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG27">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH27">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI27">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ27">
         <v>1981</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>2330972</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4082,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U28">
         <v>125</v>
@@ -4118,30 +4286,36 @@
         <v>38993399</v>
       </c>
       <c r="AG28">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH28">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI28">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ28">
         <v>1981</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>5074615</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4198,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U29">
         <v>125</v>
@@ -4234,30 +4408,36 @@
         <v>25548911</v>
       </c>
       <c r="AG29">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH29">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI29">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ29">
         <v>1981</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1105062</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4314,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U30">
         <v>125</v>
@@ -4350,30 +4530,36 @@
         <v>32846422</v>
       </c>
       <c r="AG30">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH30">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI30">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ30">
         <v>1981</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>6489356</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4430,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U31">
         <v>125</v>
@@ -4466,30 +4652,36 @@
         <v>10672204</v>
       </c>
       <c r="AG31">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH31">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI31">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ31">
         <v>1981</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>1216468</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4546,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U32">
         <v>125</v>
@@ -4582,30 +4774,36 @@
         <v>27999397</v>
       </c>
       <c r="AG32">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH32">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI32">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ32">
         <v>1981</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>8089728</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4662,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U33">
         <v>125</v>
@@ -4698,30 +4896,36 @@
         <v>2954084</v>
       </c>
       <c r="AG33">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH33">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI33">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ33">
         <v>1981</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>133806</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4778,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U34">
         <v>125</v>
@@ -4814,30 +5018,36 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH34">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI34">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ34">
         <v>1981</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>1049320</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4894,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U35">
         <v>125</v>
@@ -4930,30 +5140,36 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH35">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI35">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ35">
         <v>1981</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>400225</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5010,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U36">
         <v>125</v>
@@ -5046,30 +5262,36 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH36">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI36">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ36">
         <v>1981</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>450476</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5126,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>38411539</v>
+        <v>38611081</v>
       </c>
       <c r="U37">
         <v>125</v>
@@ -5162,30 +5384,36 @@
         <v>9934803.333333334</v>
       </c>
       <c r="AG37">
-        <v>69389796</v>
+        <v>69589338</v>
       </c>
       <c r="AH37">
-        <v>0.5535617801787456</v>
+        <v>0.5548419069599426</v>
       </c>
       <c r="AI37">
+        <v>0.3346386338665845</v>
+      </c>
+      <c r="AJ37">
         <v>1981</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>672414</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5242,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U38">
         <v>116</v>
@@ -5278,30 +5506,36 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH38">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI38">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ38">
         <v>1981</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>1059526</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5358,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U39">
         <v>116</v>
@@ -5394,30 +5628,36 @@
         <v>1592777</v>
       </c>
       <c r="AG39">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH39">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI39">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ39">
         <v>1981</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>1112539</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5474,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U40">
         <v>116</v>
@@ -5510,30 +5750,36 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH40">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI40">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ40">
         <v>1981</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>426525</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5590,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U41">
         <v>116</v>
@@ -5626,30 +5872,36 @@
         <v>1906871</v>
       </c>
       <c r="AG41">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH41">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI41">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ41">
         <v>1981</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>1374147</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5706,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U42">
         <v>116</v>
@@ -5742,30 +5994,36 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH42">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI42">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ42">
         <v>1981</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>934725</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5822,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U43">
         <v>116</v>
@@ -5858,30 +6116,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH43">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI43">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ43">
         <v>1981</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>474769</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5938,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U44">
         <v>116</v>
@@ -5974,30 +6238,36 @@
         <v>2407765</v>
       </c>
       <c r="AG44">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH44">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI44">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ44">
         <v>1981</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>3610360</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6054,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U45">
         <v>116</v>
@@ -6090,30 +6360,36 @@
         <v>2140362</v>
       </c>
       <c r="AG45">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH45">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI45">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ45">
         <v>1981</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>450000</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6170,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U46">
         <v>116</v>
@@ -6206,30 +6482,36 @@
         <v>3746015</v>
       </c>
       <c r="AG46">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH46">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI46">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ46">
         <v>1981</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>470318</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6286,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U47">
         <v>116</v>
@@ -6322,30 +6604,36 @@
         <v>2070562</v>
       </c>
       <c r="AG47">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH47">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI47">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ47">
         <v>1981</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>3063541</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6402,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U48">
         <v>116</v>
@@ -6438,30 +6726,36 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH48">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI48">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ48">
         <v>1981</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>1408514</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6518,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U49">
         <v>116</v>
@@ -6554,30 +6848,36 @@
         <v>2121035</v>
       </c>
       <c r="AG49">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH49">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI49">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ49">
         <v>1981</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>1798518</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6634,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U50">
         <v>116</v>
@@ -6670,30 +6970,36 @@
         <v>2169360</v>
       </c>
       <c r="AG50">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH50">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI50">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ50">
         <v>1981</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>4260301</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6750,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U51">
         <v>116</v>
@@ -6786,30 +7092,36 @@
         <v>1772730</v>
       </c>
       <c r="AG51">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH51">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI51">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ51">
         <v>1981</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>1008218</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6866,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U52">
         <v>116</v>
@@ -6902,30 +7214,36 @@
         <v>2299220</v>
       </c>
       <c r="AG52">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH52">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI52">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ52">
         <v>1981</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>4509357</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6982,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U53">
         <v>116</v>
@@ -7018,30 +7336,36 @@
         <v>1859221</v>
       </c>
       <c r="AG53">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH53">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI53">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ53">
         <v>1981</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>1674690</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7098,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U54">
         <v>116</v>
@@ -7134,30 +7458,36 @@
         <v>2304887</v>
       </c>
       <c r="AG54">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH54">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI54">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ54">
         <v>1981</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>6085479</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7214,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U55">
         <v>116</v>
@@ -7250,30 +7580,36 @@
         <v>1008971</v>
       </c>
       <c r="AG55">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH55">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI55">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ55">
         <v>1981</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>212437</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7330,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U56">
         <v>116</v>
@@ -7366,30 +7702,36 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH56">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI56">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ56">
         <v>1981</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>1077804</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7446,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U57">
         <v>116</v>
@@ -7482,30 +7824,36 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH57">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI57">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ57">
         <v>1981</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>445851</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7562,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U58">
         <v>116</v>
@@ -7598,30 +7946,36 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH58">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI58">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ58">
         <v>1981</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>476412</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7678,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>33432412</v>
+        <v>33524095</v>
       </c>
       <c r="U59">
         <v>116</v>
@@ -7714,30 +8068,36 @@
         <v>968802</v>
       </c>
       <c r="AG59">
-        <v>38716696</v>
+        <v>38808379</v>
       </c>
       <c r="AH59">
-        <v>0.8635140767177034</v>
+        <v>0.8638365183972255</v>
       </c>
       <c r="AI59">
+        <v>0.01120471947565756</v>
+      </c>
+      <c r="AJ59">
         <v>1981</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>476191</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7836,24 +8196,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI60">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ60">
         <v>1981</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>1672164</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7952,24 +8318,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI61">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ61">
         <v>1981</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>509183.5</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8068,24 +8440,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI62">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ62">
         <v>1981</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>2087108</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8184,24 +8562,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI63">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ63">
         <v>1981</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>1030102.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8300,24 +8684,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI64">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ64">
         <v>1981</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>244283.5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8416,24 +8806,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI65">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ65">
         <v>1981</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>1375752</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8532,24 +8928,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI66">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ66">
         <v>1981</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>673293</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8648,24 +9050,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI67">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ67">
         <v>1981</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>525714.5</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8764,24 +9172,30 @@
         <v>0.8872371190161324</v>
       </c>
       <c r="AI68">
+        <v>0.009353568431376141</v>
+      </c>
+      <c r="AJ68">
         <v>1981</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>659351</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8880,24 +9294,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI69">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ69">
         <v>1981</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>1672164</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8996,24 +9416,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI70">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ70">
         <v>1981</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>509183.5</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9112,24 +9538,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI71">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ71">
         <v>1981</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>2087108</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9228,24 +9660,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI72">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ72">
         <v>1981</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>1030102.5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9344,24 +9782,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI73">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ73">
         <v>1981</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>244283.5</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9460,24 +9904,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI74">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ74">
         <v>1981</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>1375752</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9576,24 +10026,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI75">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ75">
         <v>1981</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>673293</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9692,24 +10148,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI76">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ76">
         <v>1981</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>525714.5</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9808,24 +10270,30 @@
         <v>0.9079259736828007</v>
       </c>
       <c r="AI77">
+        <v>0.01707517817441799</v>
+      </c>
+      <c r="AJ77">
         <v>1981</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>659351</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9882,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U78">
         <v>83</v>
@@ -9918,30 +10386,36 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH78">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI78">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ78">
         <v>1981</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>83985.5</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9998,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U79">
         <v>83</v>
@@ -10034,30 +10508,36 @@
         <v>10602689</v>
       </c>
       <c r="AG79">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH79">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI79">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ79">
         <v>1981</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>1950933.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10114,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U80">
         <v>83</v>
@@ -10150,30 +10630,36 @@
         <v>10535466</v>
       </c>
       <c r="AG80">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH80">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI80">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ80">
         <v>1981</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>776829</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10230,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U81">
         <v>83</v>
@@ -10266,30 +10752,36 @@
         <v>6011154</v>
       </c>
       <c r="AG81">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH81">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI81">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ81">
         <v>1981</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>1513675.5</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10346,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U82">
         <v>83</v>
@@ -10382,30 +10874,36 @@
         <v>11105000</v>
       </c>
       <c r="AG82">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH82">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI82">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ82">
         <v>1981</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>1173070</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10462,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U83">
         <v>83</v>
@@ -10498,30 +10996,36 @@
         <v>7960000</v>
       </c>
       <c r="AG83">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH83">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI83">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ83">
         <v>1981</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>927451.5</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10578,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U84">
         <v>83</v>
@@ -10614,30 +11118,36 @@
         <v>6909225</v>
       </c>
       <c r="AG84">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH84">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI84">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ84">
         <v>1981</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>152886</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10694,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U85">
         <v>83</v>
@@ -10730,30 +11240,36 @@
         <v>5000000</v>
       </c>
       <c r="AG85">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH85">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI85">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ85">
         <v>1981</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>13179.5</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10810,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U86">
         <v>83</v>
@@ -10846,30 +11362,36 @@
         <v>8125000</v>
       </c>
       <c r="AG86">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH86">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI86">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ86">
         <v>1981</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>1347992.5</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10926,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U87">
         <v>83</v>
@@ -10962,30 +11484,36 @@
         <v>0</v>
       </c>
       <c r="AG87">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH87">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI87">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ87">
         <v>1981</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>474290</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11042,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U88">
         <v>83</v>
@@ -11078,30 +11606,36 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH88">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI88">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ88">
         <v>1981</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>425593</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11158,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="T89">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U89">
         <v>83</v>
@@ -11194,30 +11728,36 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH89">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI89">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ89">
         <v>1981</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>477357.5</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11274,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U90">
         <v>83</v>
@@ -11310,30 +11850,36 @@
         <v>0</v>
       </c>
       <c r="AG90">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH90">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI90">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ90">
         <v>1981</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>618408.5</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11390,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U91">
         <v>83</v>
@@ -11426,30 +11972,36 @@
         <v>8486450</v>
       </c>
       <c r="AG91">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH91">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI91">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ91">
         <v>1981</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>325666.5</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11506,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U92">
         <v>83</v>
@@ -11542,30 +12094,36 @@
         <v>0</v>
       </c>
       <c r="AG92">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH92">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI92">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ92">
         <v>1981</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>434076</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11622,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U93">
         <v>83</v>
@@ -11658,30 +12216,36 @@
         <v>8243214</v>
       </c>
       <c r="AG93">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH93">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI93">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ93">
         <v>1981</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>700364</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11738,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U94">
         <v>83</v>
@@ -11774,30 +12338,36 @@
         <v>0</v>
       </c>
       <c r="AG94">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH94">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI94">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ94">
         <v>1981</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>168366</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11854,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U95">
         <v>83</v>
@@ -11890,30 +12460,36 @@
         <v>5885000</v>
       </c>
       <c r="AG95">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH95">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI95">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ95">
         <v>1981</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>761538.5</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11970,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U96">
         <v>83</v>
@@ -12006,30 +12582,36 @@
         <v>6615978</v>
       </c>
       <c r="AG96">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH96">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI96">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ96">
         <v>1981</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96">
         <v>1</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>1707989</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12086,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U97">
         <v>83</v>
@@ -12122,30 +12704,36 @@
         <v>0</v>
       </c>
       <c r="AG97">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH97">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI97">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ97">
         <v>1981</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>264832.5</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12202,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>27326985.9</v>
+        <v>27428651.57</v>
       </c>
       <c r="U98">
         <v>83</v>
@@ -12238,30 +12826,36 @@
         <v>0</v>
       </c>
       <c r="AG98">
-        <v>35296636.94</v>
+        <v>35398302.61</v>
       </c>
       <c r="AH98">
-        <v>0.7742093374632989</v>
+        <v>0.7748578193761025</v>
       </c>
       <c r="AI98">
+        <v>0.1405578652970332</v>
+      </c>
+      <c r="AJ98">
         <v>1981</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>146128.5</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12300,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O99">
         <v>26298214.48</v>
@@ -12360,24 +12954,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI99">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ99">
         <v>1981</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>83985.5</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12416,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O100">
         <v>26298214.48</v>
@@ -12476,24 +13076,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI100">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ100">
         <v>1981</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>1</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>1950933.5</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12532,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O101">
         <v>26298214.48</v>
@@ -12592,24 +13198,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI101">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ101">
         <v>1981</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101">
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>776829</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12648,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O102">
         <v>26298214.48</v>
@@ -12708,24 +13320,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI102">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ102">
         <v>1981</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102">
         <v>1</v>
       </c>
       <c r="AM102">
+        <v>1</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>1513675.5</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12764,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O103">
         <v>26298214.48</v>
@@ -12824,24 +13442,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI103">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ103">
         <v>1981</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103">
         <v>1</v>
       </c>
       <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>1173070</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12880,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O104">
         <v>26298214.48</v>
@@ -12940,24 +13564,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI104">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ104">
         <v>1981</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>927451.5</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12996,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O105">
         <v>26298214.48</v>
@@ -13056,24 +13686,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI105">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ105">
         <v>1981</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>152886</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13112,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O106">
         <v>26298214.48</v>
@@ -13172,24 +13808,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI106">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ106">
         <v>1981</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>13179.5</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13228,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O107">
         <v>26298214.48</v>
@@ -13288,24 +13930,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI107">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ107">
         <v>1981</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107">
         <v>1</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>1347992.5</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13344,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O108">
         <v>26298214.48</v>
@@ -13404,24 +14052,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI108">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ108">
         <v>1981</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>474290</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13460,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O109">
         <v>26298214.48</v>
@@ -13520,24 +14174,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI109">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ109">
         <v>1981</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
         <v>0</v>
       </c>
       <c r="AL109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>425593</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13576,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O110">
         <v>26298214.48</v>
@@ -13636,24 +14296,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI110">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ110">
         <v>1981</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
         <v>0</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>477357.5</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13692,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O111">
         <v>26298214.48</v>
@@ -13752,24 +14418,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI111">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ111">
         <v>1981</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL111">
         <v>1</v>
       </c>
       <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>618408.5</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13808,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O112">
         <v>26298214.48</v>
@@ -13868,24 +14540,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI112">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ112">
         <v>1981</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
         <v>0</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>325666.5</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13924,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O113">
         <v>26298214.48</v>
@@ -13984,24 +14662,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI113">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ113">
         <v>1981</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>434076</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14040,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O114">
         <v>26298214.48</v>
@@ -14100,24 +14784,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI114">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ114">
         <v>1981</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114">
         <v>1</v>
       </c>
       <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>700364</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14156,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O115">
         <v>26298214.48</v>
@@ -14216,24 +14906,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI115">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ115">
         <v>1981</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>168366</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14272,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O116">
         <v>26298214.48</v>
@@ -14332,24 +15028,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI116">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ116">
         <v>1981</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116">
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>761538.5</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14388,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O117">
         <v>26298214.48</v>
@@ -14448,24 +15150,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI117">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ117">
         <v>1981</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117">
         <v>1</v>
       </c>
       <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>1707989</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14504,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O118">
         <v>26298214.48</v>
@@ -14564,24 +15272,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI118">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ118">
         <v>1981</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>264832.5</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14620,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>5100320.879999999</v>
+        <v>5100320.88</v>
       </c>
       <c r="O119">
         <v>26298214.48</v>
@@ -14680,24 +15394,30 @@
         <v>0.8452740276473737</v>
       </c>
       <c r="AI119">
+        <v>0.07972733060192899</v>
+      </c>
+      <c r="AJ119">
         <v>1981</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>146128.5</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14796,24 +15516,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI120">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ120">
         <v>1981</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL120">
         <v>1</v>
       </c>
       <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>3835527</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14912,24 +15638,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI121">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ121">
         <v>1981</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL121">
         <v>1</v>
       </c>
       <c r="AM121">
+        <v>1</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>1381810</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15028,24 +15760,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI122">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ122">
         <v>1981</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122">
         <v>1</v>
       </c>
       <c r="AM122">
+        <v>1</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>2970319</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15144,24 +15882,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI123">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ123">
         <v>1981</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123">
         <v>1</v>
       </c>
       <c r="AM123">
+        <v>1</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>2901379</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -15260,24 +16004,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI124">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ124">
         <v>1981</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>2087090</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -15376,24 +16126,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI125">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ125">
         <v>1981</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL125">
         <v>1</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>341664</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15492,24 +16248,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI126">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ126">
         <v>1981</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>25063</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15608,24 +16370,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI127">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ127">
         <v>1981</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL127">
         <v>1</v>
       </c>
       <c r="AM127">
+        <v>1</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>2996582</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15724,24 +16492,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI128">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ128">
         <v>1981</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>824241</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15840,24 +16614,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI129">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ129">
         <v>1981</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>822066</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -15956,24 +16736,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI130">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ130">
         <v>1981</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>946361</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16072,24 +16858,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI131">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ131">
         <v>1981</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131">
         <v>1</v>
       </c>
       <c r="AM131">
+        <v>1</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>1273589</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -16188,24 +16980,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI132">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ132">
         <v>1981</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>804442</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16304,24 +17102,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI133">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ133">
         <v>1981</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>342464</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16420,24 +17224,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI134">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ134">
         <v>1981</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134">
         <v>1</v>
       </c>
       <c r="AM134">
+        <v>1</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>1405471</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -16536,24 +17346,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI135">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ135">
         <v>1981</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL135">
         <v>1</v>
       </c>
       <c r="AM135">
+        <v>1</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>1442210</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16652,24 +17468,30 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI136">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ136">
         <v>1981</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>1</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>3672670</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16768,18 +17590,24 @@
         <v>0.9007805618690125</v>
       </c>
       <c r="AI137">
+        <v>0.009917351023486842</v>
+      </c>
+      <c r="AJ137">
         <v>1981</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>445023</v>
       </c>
     </row>

--- a/output/ayuda en acción.xlsx
+++ b/output/ayuda en acción.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>397000</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>382800</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D7">
         <v>99652</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D10">
         <v>512340</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D11">
         <v>294007</v>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>730</v>
+        <v>748.2960604568028</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>567.9059336271471</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1010</v>
+        <v>993.3829437244538</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>450</v>
+        <v>478.6685897045245</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D18">
         <v>2000000</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D23">
         <v>2500000</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D24">
         <v>2500000</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D25">
         <v>2500000</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D27">
         <v>2500000</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D28">
         <v>3310000</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D30">
         <v>3310000</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D31">
         <v>512340</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D32">
         <v>294007</v>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>800</v>
+        <v>781.1535935570469</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>540</v>
+        <v>592.4010974509293</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1030</v>
+        <v>987.4097230439231</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D39">
         <v>2000000</v>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D44">
         <v>2500000</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D45">
         <v>2500000</v>
@@ -6395,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D47">
         <v>2500000</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D49">
         <v>2500000</v>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D50">
         <v>292826</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D52">
         <v>3310000</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>890</v>
+        <v>822.1883388417289</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>610</v>
+        <v>612.032557723897</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1090</v>
+        <v>992.8781394745556</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D60">
         <v>292826</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D68">
         <v>249086</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D77">
         <v>397460</v>
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10543,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D82">
         <v>625000</v>
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D83">
         <v>2500000</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D84">
         <v>625000</v>
@@ -11153,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85">
         <v>0</v>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D86">
         <v>3125000</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>370</v>
+        <v>507.537974993908</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D93">
         <v>625000</v>
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1320</v>
+        <v>1054.227974015008</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D95">
         <v>222300</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D102">
         <v>349307</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D103">
         <v>625000</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D104">
         <v>2500000</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D105">
         <v>625000</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106">
         <v>0</v>
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D107">
         <v>3125000</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14081,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>350</v>
+        <v>507.5484050163182</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D114">
         <v>625000</v>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1360</v>
+        <v>1081.294365994858</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D116">
         <v>222300</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D122">
         <v>349307</v>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16033,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM126">
         <v>0</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16643,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>340</v>
+        <v>506.2496613373833</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16887,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D135">
         <v>312887</v>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17497,7 +17497,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D137">
         <v>0</v>

--- a/output/ayuda en acción.xlsx
+++ b/output/ayuda en acción.xlsx
@@ -1640,7 +1640,7 @@
         <v>1909.084588129339</v>
       </c>
       <c r="D7">
-        <v>99652</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>4611990</v>
@@ -4568,7 +4568,7 @@
         <v>4355.934938677345</v>
       </c>
       <c r="D31">
-        <v>512340</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>837225</v>
@@ -4690,7 +4690,7 @@
         <v>5082.354756663512</v>
       </c>
       <c r="D32">
-        <v>294007</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>8612270</v>
@@ -5544,7 +5544,7 @@
         <v>492.3430015592067</v>
       </c>
       <c r="D39">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1561628</v>
@@ -6154,7 +6154,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D44">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>3815481</v>
@@ -6276,7 +6276,7 @@
         <v>2965.153206179127</v>
       </c>
       <c r="D45">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>418898</v>
@@ -6520,7 +6520,7 @@
         <v>1939.33862702996</v>
       </c>
       <c r="D47">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>3719208</v>
@@ -6764,7 +6764,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D49">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2330972</v>
@@ -7130,7 +7130,7 @@
         <v>4921.848409120176</v>
       </c>
       <c r="D52">
-        <v>3310000</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>6489356</v>
@@ -8106,7 +8106,7 @@
         <v>2094.024217383061</v>
       </c>
       <c r="D60">
-        <v>292826</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>4260301</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1672164</v>
+        <v>4260301</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>509183.5</v>
+        <v>1008218</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>2087108</v>
+        <v>4509357</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1030102.5</v>
+        <v>3610360</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>244283.5</v>
+        <v>450000</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1375752</v>
+        <v>3063541</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>673293</v>
+        <v>1408514</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>525714.5</v>
+        <v>1798518</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10183,7 +10183,7 @@
         <v>397460</v>
       </c>
       <c r="E77">
-        <v>659351</v>
+        <v>1674690</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -12858,7 +12858,7 @@
         <v>138</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1002.388731936373</v>
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>83985.5</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1950933.5</v>
+        <v>1672164</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>776829</v>
+        <v>509183.5</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>349307</v>
       </c>
       <c r="E102">
-        <v>1513675.5</v>
+        <v>2087108</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13352,10 +13352,10 @@
         <v>3314.741082534716</v>
       </c>
       <c r="D103">
-        <v>625000</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1173070</v>
+        <v>1030102.5</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -13468,16 +13468,16 @@
         <v>143</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>482.6390663355013</v>
       </c>
       <c r="D104">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>927451.5</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -13596,10 +13596,10 @@
         <v>3210.869677115934</v>
       </c>
       <c r="D105">
-        <v>625000</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>152886</v>
+        <v>244283.5</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -13712,7 +13712,7 @@
         <v>145</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>729.1196658666737</v>
@@ -13721,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>13179.5</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -13840,10 +13840,10 @@
         <v>2067.29003376698</v>
       </c>
       <c r="D107">
-        <v>3125000</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1347992.5</v>
+        <v>1375752</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>474290</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>425593</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>149</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>507.5484050163182</v>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>477357.5</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>618408.5</v>
+        <v>673293</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -14444,7 +14444,7 @@
         <v>151</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>579.0880693780265</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>325666.5</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -14566,7 +14566,7 @@
         <v>152</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>731.9993357350996</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>434076</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14694,10 +14694,10 @@
         <v>1836.014008604312</v>
       </c>
       <c r="D114">
-        <v>625000</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>700364</v>
+        <v>525714.5</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>168366</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -14938,10 +14938,10 @@
         <v>4944.191641077407</v>
       </c>
       <c r="D116">
-        <v>222300</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>761538.5</v>
+        <v>659351</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1707989</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -15176,7 +15176,7 @@
         <v>157</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>900.3889853519216</v>
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>264832.5</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>146128.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -15670,7 +15670,7 @@
         <v>5176.058803160127</v>
       </c>
       <c r="D122">
-        <v>349307</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>1513675.5</v>
